--- a/1 - FORMULAS AND FUNCTIONS/Excel Demo Workbooks/Section7_Date_Time_Functions.xlsx
+++ b/1 - FORMULAS AND FUNCTIONS/Excel Demo Workbooks/Section7_Date_Time_Functions.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDutton\Documents\SecondLens\Excel Maven\Udemy\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Documents\GitHub\Learning-Excel\1 - FORMULAS AND FUNCTIONS\Excel Demo Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D92EA5-45AF-4DFA-A9FB-DCF5C60D950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Date_Time Functions" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Budget Pacing Tool" sheetId="2" r:id="rId2"/>
     <sheet name="Sample Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Current Date:</t>
   </si>
@@ -105,14 +117,19 @@
   <si>
     <t>Day of Week:</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="dddd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -265,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -285,7 +302,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -318,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +346,9 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,7 +358,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -349,7 +369,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -363,7 +414,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -383,6 +434,90 @@
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget Pacing Tool'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of Month:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget Pacing Tool'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25806451612903225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CA5-4FCF-9891-AEEA99CC45E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget Pacing Tool'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of Budget:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget Pacing Tool'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.34234999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CA5-4FCF-9891-AEEA99CC45E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -463,7 +598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397223296"/>
@@ -486,8 +621,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.29419684397641005"/>
           <c:y val="0.89042075833812828"/>
-          <c:w val="0.21484218804779365"/>
-          <c:h val="0.10344897494217277"/>
+          <c:w val="0.20873015385937238"/>
+          <c:h val="0.10705861313452938"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -515,7 +650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -540,7 +675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1113,7 +1248,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1169,7 +1310,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1449,130 +1596,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="19">
+        <f ca="1">TODAY()</f>
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20">
+        <f ca="1">NOW()</f>
+        <v>45147.881762152778</v>
+      </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="19">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="16">
+        <f ca="1">YEAR(C2)</f>
+        <v>2023</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="16">
+        <f ca="1">DATEDIF(C2,F3,"D")</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <f ca="1">MONTH(C2)</f>
+        <v>8</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="17">
+        <f ca="1">NETWORKDAYS(C2,F3)</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17">
+        <f ca="1">DAY(C3)</f>
+        <v>9</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="28">
+        <f>WEEKDAY(F3)</f>
+        <v>5</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="17">
+        <f ca="1">HOUR(C3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="17">
+        <f ca="1">MINUTE(C3)</f>
+        <v>9</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="17">
+        <f ca="1">DATEDIF($C$2,$F$3,"M")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <f ca="1">SECOND(C3)</f>
+        <v>44</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="17">
+        <f ca="1">DATEDIF($C$2,$F$3,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="27">
+        <f ca="1">EOMONTH($C$2,0)</f>
+        <v>45169</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="23">
+        <f ca="1">EOMONTH($C$2,-1)+1</f>
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="23">
+        <f ca="1">EOMONTH($C$2,(-1*MONTH(C2)))+1</f>
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="22">
+        <f ca="1">YEARFRAC(C14,C2,1)</f>
+        <v>0.60273972602739723</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1582,66 +1782,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11">
+        <f ca="1">TODAY()</f>
+        <v>45147</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="24">
+        <f ca="1">F4-C4</f>
+        <v>8.4285483870967737E-2</v>
+      </c>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <f ca="1">EOMONTH(C2,-1)+1</f>
+        <v>45139</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10">
+        <f ca="1">SUMIFS('Sample Data'!C:C,'Sample Data'!A:A,MONTH('Monthly Budget Pacing Tool'!C2))</f>
+        <v>6847</v>
+      </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <f ca="1">(C2-C3)/VLOOKUP(MONTH(C2),B24:C35,2,0)</f>
+        <v>0.25806451612903225</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="12">
+        <f ca="1">F3/F2</f>
+        <v>0.34234999999999999</v>
+      </c>
+      <c r="H4" s="26" t="str">
+        <f ca="1">IF(H2&gt;0,"OVERPACING","UNDERPACING")</f>
+        <v>OVERPACING</v>
+      </c>
       <c r="I4" s="26"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1649,7 +1872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>2</v>
       </c>
@@ -1657,7 +1880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>3</v>
       </c>
@@ -1665,7 +1888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>4</v>
       </c>
@@ -1673,7 +1896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>5</v>
       </c>
@@ -1681,7 +1904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>6</v>
       </c>
@@ -1689,7 +1912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>7</v>
       </c>
@@ -1697,7 +1920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8</v>
       </c>
@@ -1705,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>9</v>
       </c>
@@ -1713,7 +1936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>10</v>
       </c>
@@ -1721,7 +1944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>11</v>
       </c>
@@ -1729,7 +1952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>12</v>
       </c>
@@ -1742,1122 +1965,7839 @@
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
+  <conditionalFormatting sqref="H2:I3">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>42005</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>MONTH(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C2" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>42006</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">MONTH(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44928</v>
+      </c>
+      <c r="C3" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>42007</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44929</v>
+      </c>
+      <c r="C4" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>42008</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44930</v>
+      </c>
+      <c r="C5" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>42009</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44931</v>
+      </c>
+      <c r="C6" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>42010</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44932</v>
+      </c>
+      <c r="C7" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>42011</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44933</v>
+      </c>
+      <c r="C8" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>42012</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44934</v>
+      </c>
+      <c r="C9" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>42013</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44935</v>
+      </c>
+      <c r="C10" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>42014</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44936</v>
+      </c>
+      <c r="C11" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>42015</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44937</v>
+      </c>
+      <c r="C12" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>42016</v>
-      </c>
-      <c r="B13" s="4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44938</v>
+      </c>
+      <c r="C13" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>42017</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44939</v>
+      </c>
+      <c r="C14" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>42018</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44940</v>
+      </c>
+      <c r="C15" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>42019</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44941</v>
+      </c>
+      <c r="C16" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>42020</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44942</v>
+      </c>
+      <c r="C17" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>42021</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44943</v>
+      </c>
+      <c r="C18" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>42022</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44944</v>
+      </c>
+      <c r="C19" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>42023</v>
-      </c>
-      <c r="B20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44945</v>
+      </c>
+      <c r="C20" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>42024</v>
-      </c>
-      <c r="B21" s="4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44946</v>
+      </c>
+      <c r="C21" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>42025</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44947</v>
+      </c>
+      <c r="C22" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>42026</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44948</v>
+      </c>
+      <c r="C23" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>42027</v>
-      </c>
-      <c r="B24" s="4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44949</v>
+      </c>
+      <c r="C24" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>42028</v>
-      </c>
-      <c r="B25" s="4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44950</v>
+      </c>
+      <c r="C25" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>42029</v>
-      </c>
-      <c r="B26" s="4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44951</v>
+      </c>
+      <c r="C26" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>42030</v>
-      </c>
-      <c r="B27" s="4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44952</v>
+      </c>
+      <c r="C27" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>42031</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44953</v>
+      </c>
+      <c r="C28" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>42032</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44954</v>
+      </c>
+      <c r="C29" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>42033</v>
-      </c>
-      <c r="B30" s="4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44955</v>
+      </c>
+      <c r="C30" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>42034</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44956</v>
+      </c>
+      <c r="C31" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>42035</v>
-      </c>
-      <c r="B32" s="4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44957</v>
+      </c>
+      <c r="C32" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>42036</v>
-      </c>
-      <c r="B33" s="4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44958</v>
+      </c>
+      <c r="C33" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>42037</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44959</v>
+      </c>
+      <c r="C34" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>42038</v>
-      </c>
-      <c r="B35" s="4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44960</v>
+      </c>
+      <c r="C35" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>42039</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44961</v>
+      </c>
+      <c r="C36" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>42040</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44962</v>
+      </c>
+      <c r="C37" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>42041</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44963</v>
+      </c>
+      <c r="C38" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>42042</v>
-      </c>
-      <c r="B39" s="4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44964</v>
+      </c>
+      <c r="C39" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>42043</v>
-      </c>
-      <c r="B40" s="4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44965</v>
+      </c>
+      <c r="C40" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>42044</v>
-      </c>
-      <c r="B41" s="4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44966</v>
+      </c>
+      <c r="C41" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>42045</v>
-      </c>
-      <c r="B42" s="4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44967</v>
+      </c>
+      <c r="C42" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>42046</v>
-      </c>
-      <c r="B43" s="4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44968</v>
+      </c>
+      <c r="C43" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>42047</v>
-      </c>
-      <c r="B44" s="4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44969</v>
+      </c>
+      <c r="C44" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>42048</v>
-      </c>
-      <c r="B45" s="4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C45" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>42049</v>
-      </c>
-      <c r="B46" s="4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44971</v>
+      </c>
+      <c r="C46" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42050</v>
-      </c>
-      <c r="B47" s="4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44972</v>
+      </c>
+      <c r="C47" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>42051</v>
-      </c>
-      <c r="B48" s="4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44973</v>
+      </c>
+      <c r="C48" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>42052</v>
-      </c>
-      <c r="B49" s="4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44974</v>
+      </c>
+      <c r="C49" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>42053</v>
-      </c>
-      <c r="B50" s="4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44975</v>
+      </c>
+      <c r="C50" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>42054</v>
-      </c>
-      <c r="B51" s="4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44976</v>
+      </c>
+      <c r="C51" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>42055</v>
-      </c>
-      <c r="B52" s="4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44977</v>
+      </c>
+      <c r="C52" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>42056</v>
-      </c>
-      <c r="B53" s="4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44978</v>
+      </c>
+      <c r="C53" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>42057</v>
-      </c>
-      <c r="B54" s="4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44979</v>
+      </c>
+      <c r="C54" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>42058</v>
-      </c>
-      <c r="B55" s="4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44980</v>
+      </c>
+      <c r="C55" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>42059</v>
-      </c>
-      <c r="B56" s="4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44981</v>
+      </c>
+      <c r="C56" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>42060</v>
-      </c>
-      <c r="B57" s="4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44982</v>
+      </c>
+      <c r="C57" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>42061</v>
-      </c>
-      <c r="B58" s="4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44983</v>
+      </c>
+      <c r="C58" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>42062</v>
-      </c>
-      <c r="B59" s="4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44984</v>
+      </c>
+      <c r="C59" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>42063</v>
-      </c>
-      <c r="B60" s="4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44985</v>
+      </c>
+      <c r="C60" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>42064</v>
-      </c>
-      <c r="B61" s="4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44986</v>
+      </c>
+      <c r="C61" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>42065</v>
-      </c>
-      <c r="B62" s="4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C62" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>42066</v>
-      </c>
-      <c r="B63" s="4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C63" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>42067</v>
-      </c>
-      <c r="B64" s="4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44989</v>
+      </c>
+      <c r="C64" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>42068</v>
-      </c>
-      <c r="B65" s="4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44990</v>
+      </c>
+      <c r="C65" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>42069</v>
-      </c>
-      <c r="B66" s="4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44991</v>
+      </c>
+      <c r="C66" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>42070</v>
-      </c>
-      <c r="B67" s="4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">MONTH(B67)</f>
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44992</v>
+      </c>
+      <c r="C67" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>42071</v>
-      </c>
-      <c r="B68" s="4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44993</v>
+      </c>
+      <c r="C68" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>42072</v>
-      </c>
-      <c r="B69" s="4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44994</v>
+      </c>
+      <c r="C69" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>42073</v>
-      </c>
-      <c r="B70" s="4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44995</v>
+      </c>
+      <c r="C70" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>42074</v>
-      </c>
-      <c r="B71" s="4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44996</v>
+      </c>
+      <c r="C71" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>42075</v>
-      </c>
-      <c r="B72" s="4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44997</v>
+      </c>
+      <c r="C72" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>42076</v>
-      </c>
-      <c r="B73" s="4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44998</v>
+      </c>
+      <c r="C73" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>42077</v>
-      </c>
-      <c r="B74" s="4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44999</v>
+      </c>
+      <c r="C74" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>42078</v>
-      </c>
-      <c r="B75" s="4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45000</v>
+      </c>
+      <c r="C75" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>42079</v>
-      </c>
-      <c r="B76" s="4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45001</v>
+      </c>
+      <c r="C76" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>42080</v>
-      </c>
-      <c r="B77" s="4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45002</v>
+      </c>
+      <c r="C77" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>42081</v>
-      </c>
-      <c r="B78" s="4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45003</v>
+      </c>
+      <c r="C78" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>42082</v>
-      </c>
-      <c r="B79" s="4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45004</v>
+      </c>
+      <c r="C79" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>42083</v>
-      </c>
-      <c r="B80" s="4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45005</v>
+      </c>
+      <c r="C80" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>42084</v>
-      </c>
-      <c r="B81" s="4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45006</v>
+      </c>
+      <c r="C81" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>42085</v>
-      </c>
-      <c r="B82" s="4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45007</v>
+      </c>
+      <c r="C82" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>42086</v>
-      </c>
-      <c r="B83" s="4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45008</v>
+      </c>
+      <c r="C83" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>42087</v>
-      </c>
-      <c r="B84" s="4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45009</v>
+      </c>
+      <c r="C84" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>42088</v>
-      </c>
-      <c r="B85" s="4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45010</v>
+      </c>
+      <c r="C85" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>42089</v>
-      </c>
-      <c r="B86" s="4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45011</v>
+      </c>
+      <c r="C86" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>42090</v>
-      </c>
-      <c r="B87" s="4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45012</v>
+      </c>
+      <c r="C87" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>42091</v>
-      </c>
-      <c r="B88" s="4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45013</v>
+      </c>
+      <c r="C88" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>42092</v>
-      </c>
-      <c r="B89" s="4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45014</v>
+      </c>
+      <c r="C89" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>42093</v>
-      </c>
-      <c r="B90" s="4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45015</v>
+      </c>
+      <c r="C90" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>42094</v>
-      </c>
-      <c r="B91" s="4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45016</v>
+      </c>
+      <c r="C91" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>42095</v>
-      </c>
-      <c r="B92" s="4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C92" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>42096</v>
-      </c>
-      <c r="B93" s="4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B93" s="3">
+        <v>45018</v>
+      </c>
+      <c r="C93" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>42097</v>
-      </c>
-      <c r="B94" s="4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45019</v>
+      </c>
+      <c r="C94" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>42098</v>
-      </c>
-      <c r="B95" s="4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B95" s="3">
+        <v>45020</v>
+      </c>
+      <c r="C95" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>42099</v>
-      </c>
-      <c r="B96" s="4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45021</v>
+      </c>
+      <c r="C96" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>42100</v>
-      </c>
-      <c r="B97" s="4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45022</v>
+      </c>
+      <c r="C97" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>42101</v>
-      </c>
-      <c r="B98" s="4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B98" s="3">
+        <v>45023</v>
+      </c>
+      <c r="C98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>42102</v>
-      </c>
-      <c r="B99" s="4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45024</v>
+      </c>
+      <c r="C99" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>42103</v>
-      </c>
-      <c r="B100" s="4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B100" s="3">
+        <v>45025</v>
+      </c>
+      <c r="C100" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>42104</v>
-      </c>
-      <c r="B101" s="4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B101" s="3">
+        <v>45026</v>
+      </c>
+      <c r="C101" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>42105</v>
-      </c>
-      <c r="B102" s="4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B102" s="3">
+        <v>45027</v>
+      </c>
+      <c r="C102" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>42106</v>
-      </c>
-      <c r="B103" s="4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B103" s="3">
+        <v>45028</v>
+      </c>
+      <c r="C103" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>42107</v>
-      </c>
-      <c r="B104" s="4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B104" s="3">
+        <v>45029</v>
+      </c>
+      <c r="C104" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>42108</v>
-      </c>
-      <c r="B105" s="4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B105" s="3">
+        <v>45030</v>
+      </c>
+      <c r="C105" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>42109</v>
-      </c>
-      <c r="B106" s="4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B106" s="3">
+        <v>45031</v>
+      </c>
+      <c r="C106" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>42110</v>
-      </c>
-      <c r="B107" s="4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B107" s="3">
+        <v>45032</v>
+      </c>
+      <c r="C107" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>42111</v>
-      </c>
-      <c r="B108" s="4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45033</v>
+      </c>
+      <c r="C108" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>42112</v>
-      </c>
-      <c r="B109" s="4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45034</v>
+      </c>
+      <c r="C109" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>42113</v>
-      </c>
-      <c r="B110" s="4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45035</v>
+      </c>
+      <c r="C110" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>42114</v>
-      </c>
-      <c r="B111" s="4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B111" s="3">
+        <v>45036</v>
+      </c>
+      <c r="C111" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>42115</v>
-      </c>
-      <c r="B112" s="4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B112" s="3">
+        <v>45037</v>
+      </c>
+      <c r="C112" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>42116</v>
-      </c>
-      <c r="B113" s="4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B113" s="3">
+        <v>45038</v>
+      </c>
+      <c r="C113" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>42117</v>
-      </c>
-      <c r="B114" s="4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B114" s="3">
+        <v>45039</v>
+      </c>
+      <c r="C114" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>42118</v>
-      </c>
-      <c r="B115" s="4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B115" s="3">
+        <v>45040</v>
+      </c>
+      <c r="C115" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>42119</v>
-      </c>
-      <c r="B116" s="4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B116" s="3">
+        <v>45041</v>
+      </c>
+      <c r="C116" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>42120</v>
-      </c>
-      <c r="B117" s="4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B117" s="3">
+        <v>45042</v>
+      </c>
+      <c r="C117" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>42121</v>
-      </c>
-      <c r="B118" s="4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B118" s="3">
+        <v>45043</v>
+      </c>
+      <c r="C118" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
-        <v>42122</v>
-      </c>
-      <c r="B119" s="4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B119" s="3">
+        <v>45044</v>
+      </c>
+      <c r="C119" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>42123</v>
-      </c>
-      <c r="B120" s="4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B120" s="3">
+        <v>45045</v>
+      </c>
+      <c r="C120" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>42124</v>
-      </c>
-      <c r="B121" s="4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B121" s="3">
+        <v>45046</v>
+      </c>
+      <c r="C121" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>42125</v>
-      </c>
-      <c r="B122" s="4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B122" s="3">
+        <v>45047</v>
+      </c>
+      <c r="C122" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>42126</v>
-      </c>
-      <c r="B123" s="4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B123" s="3">
+        <v>45048</v>
+      </c>
+      <c r="C123" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>42127</v>
-      </c>
-      <c r="B124" s="4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B124" s="3">
+        <v>45049</v>
+      </c>
+      <c r="C124" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>42128</v>
-      </c>
-      <c r="B125" s="4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B125" s="3">
+        <v>45050</v>
+      </c>
+      <c r="C125" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>42129</v>
-      </c>
-      <c r="B126" s="4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B126" s="3">
+        <v>45051</v>
+      </c>
+      <c r="C126" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>42130</v>
-      </c>
-      <c r="B127" s="4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B127" s="3">
+        <v>45052</v>
+      </c>
+      <c r="C127" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
-        <v>42131</v>
-      </c>
-      <c r="B128" s="4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B128" s="3">
+        <v>45053</v>
+      </c>
+      <c r="C128" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B129" s="4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B129" s="3">
+        <v>45054</v>
+      </c>
+      <c r="C129" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>42133</v>
-      </c>
-      <c r="B130" s="4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B130" s="3">
+        <v>45055</v>
+      </c>
+      <c r="C130" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
-        <v>42134</v>
-      </c>
-      <c r="B131" s="4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="2">MONTH(B131)</f>
+        <v>5</v>
+      </c>
+      <c r="B131" s="3">
+        <v>45056</v>
+      </c>
+      <c r="C131" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
-        <v>42135</v>
-      </c>
-      <c r="B132" s="4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B132" s="3">
+        <v>45057</v>
+      </c>
+      <c r="C132" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>42136</v>
-      </c>
-      <c r="B133" s="4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B133" s="3">
+        <v>45058</v>
+      </c>
+      <c r="C133" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>42137</v>
-      </c>
-      <c r="B134" s="4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B134" s="3">
+        <v>45059</v>
+      </c>
+      <c r="C134" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
-        <v>42138</v>
-      </c>
-      <c r="B135" s="4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B135" s="3">
+        <v>45060</v>
+      </c>
+      <c r="C135" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>42139</v>
-      </c>
-      <c r="B136" s="4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B136" s="3">
+        <v>45061</v>
+      </c>
+      <c r="C136" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>42140</v>
-      </c>
-      <c r="B137" s="4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B137" s="3">
+        <v>45062</v>
+      </c>
+      <c r="C137" s="4">
         <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B138" s="3">
+        <v>45063</v>
+      </c>
+      <c r="C138" s="4">
+        <f ca="1">RANDBETWEEN(1,200)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B139" s="3">
+        <v>45064</v>
+      </c>
+      <c r="C139" s="4">
+        <f t="shared" ref="C139:C202" ca="1" si="3">RANDBETWEEN(1,200)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B140" s="3">
+        <v>45065</v>
+      </c>
+      <c r="C140" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B141" s="3">
+        <v>45066</v>
+      </c>
+      <c r="C141" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B142" s="3">
+        <v>45067</v>
+      </c>
+      <c r="C142" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B143" s="3">
+        <v>45068</v>
+      </c>
+      <c r="C143" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B144" s="3">
+        <v>45069</v>
+      </c>
+      <c r="C144" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B145" s="3">
+        <v>45070</v>
+      </c>
+      <c r="C145" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B146" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C146" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B147" s="3">
+        <v>45072</v>
+      </c>
+      <c r="C147" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B148" s="3">
+        <v>45073</v>
+      </c>
+      <c r="C148" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B149" s="3">
+        <v>45074</v>
+      </c>
+      <c r="C149" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B150" s="3">
+        <v>45075</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B151" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C151" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B152" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C152" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B153" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C153" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B154" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C154" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B155" s="3">
+        <v>45080</v>
+      </c>
+      <c r="C155" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B156" s="3">
+        <v>45081</v>
+      </c>
+      <c r="C156" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B157" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C157" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B158" s="3">
+        <v>45083</v>
+      </c>
+      <c r="C158" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B159" s="3">
+        <v>45084</v>
+      </c>
+      <c r="C159" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B160" s="3">
+        <v>45085</v>
+      </c>
+      <c r="C160" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B161" s="3">
+        <v>45086</v>
+      </c>
+      <c r="C161" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B162" s="3">
+        <v>45087</v>
+      </c>
+      <c r="C162" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B163" s="3">
+        <v>45088</v>
+      </c>
+      <c r="C163" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B164" s="3">
+        <v>45089</v>
+      </c>
+      <c r="C164" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B165" s="3">
+        <v>45090</v>
+      </c>
+      <c r="C165" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B166" s="3">
+        <v>45091</v>
+      </c>
+      <c r="C166" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B167" s="3">
+        <v>45092</v>
+      </c>
+      <c r="C167" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B168" s="3">
+        <v>45093</v>
+      </c>
+      <c r="C168" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B169" s="3">
+        <v>45094</v>
+      </c>
+      <c r="C169" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B170" s="3">
+        <v>45095</v>
+      </c>
+      <c r="C170" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B171" s="3">
+        <v>45096</v>
+      </c>
+      <c r="C171" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B172" s="3">
+        <v>45097</v>
+      </c>
+      <c r="C172" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B173" s="3">
+        <v>45098</v>
+      </c>
+      <c r="C173" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B174" s="3">
+        <v>45099</v>
+      </c>
+      <c r="C174" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B175" s="3">
+        <v>45100</v>
+      </c>
+      <c r="C175" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B176" s="3">
+        <v>45101</v>
+      </c>
+      <c r="C176" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B177" s="3">
+        <v>45102</v>
+      </c>
+      <c r="C177" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B178" s="3">
+        <v>45103</v>
+      </c>
+      <c r="C178" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B179" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C179" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B180" s="3">
+        <v>45105</v>
+      </c>
+      <c r="C180" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B181" s="3">
+        <v>45106</v>
+      </c>
+      <c r="C181" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B182" s="3">
+        <v>45107</v>
+      </c>
+      <c r="C182" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B183" s="3">
+        <v>45108</v>
+      </c>
+      <c r="C183" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B184" s="3">
+        <v>45109</v>
+      </c>
+      <c r="C184" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B185" s="3">
+        <v>45110</v>
+      </c>
+      <c r="C185" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B186" s="3">
+        <v>45111</v>
+      </c>
+      <c r="C186" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B187" s="3">
+        <v>45112</v>
+      </c>
+      <c r="C187" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B188" s="3">
+        <v>45113</v>
+      </c>
+      <c r="C188" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B189" s="3">
+        <v>45114</v>
+      </c>
+      <c r="C189" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B190" s="3">
+        <v>45115</v>
+      </c>
+      <c r="C190" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B191" s="3">
+        <v>45116</v>
+      </c>
+      <c r="C191" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B192" s="3">
+        <v>45117</v>
+      </c>
+      <c r="C192" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B193" s="3">
+        <v>45118</v>
+      </c>
+      <c r="C193" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B194" s="3">
+        <v>45119</v>
+      </c>
+      <c r="C194" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="4">MONTH(B195)</f>
+        <v>7</v>
+      </c>
+      <c r="B195" s="3">
+        <v>45120</v>
+      </c>
+      <c r="C195" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B196" s="3">
+        <v>45121</v>
+      </c>
+      <c r="C196" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B197" s="3">
+        <v>45122</v>
+      </c>
+      <c r="C197" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B198" s="3">
+        <v>45123</v>
+      </c>
+      <c r="C198" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B199" s="3">
+        <v>45124</v>
+      </c>
+      <c r="C199" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B200" s="3">
+        <v>45125</v>
+      </c>
+      <c r="C200" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B201" s="3">
+        <v>45126</v>
+      </c>
+      <c r="C201" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B202" s="3">
+        <v>45127</v>
+      </c>
+      <c r="C202" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B203" s="3">
+        <v>45128</v>
+      </c>
+      <c r="C203" s="4">
+        <f t="shared" ref="C203:C266" ca="1" si="5">RANDBETWEEN(1,200)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B204" s="3">
+        <v>45129</v>
+      </c>
+      <c r="C204" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B205" s="3">
+        <v>45130</v>
+      </c>
+      <c r="C205" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B206" s="3">
+        <v>45131</v>
+      </c>
+      <c r="C206" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B207" s="3">
+        <v>45132</v>
+      </c>
+      <c r="C207" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B208" s="3">
+        <v>45133</v>
+      </c>
+      <c r="C208" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B209" s="3">
+        <v>45134</v>
+      </c>
+      <c r="C209" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B210" s="3">
+        <v>45135</v>
+      </c>
+      <c r="C210" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B211" s="3">
+        <v>45136</v>
+      </c>
+      <c r="C211" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B212" s="3">
+        <v>45137</v>
+      </c>
+      <c r="C212" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B213" s="3">
+        <v>45138</v>
+      </c>
+      <c r="C213" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B214" s="3">
+        <v>45139</v>
+      </c>
+      <c r="C214" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B215" s="3">
+        <v>45140</v>
+      </c>
+      <c r="C215" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B216" s="3">
+        <v>45141</v>
+      </c>
+      <c r="C216" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B217" s="3">
+        <v>45142</v>
+      </c>
+      <c r="C217" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B218" s="3">
+        <v>45143</v>
+      </c>
+      <c r="C218" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B219" s="3">
+        <v>45144</v>
+      </c>
+      <c r="C219" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B220" s="3">
+        <v>45145</v>
+      </c>
+      <c r="C220" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B221" s="3">
+        <v>45146</v>
+      </c>
+      <c r="C221" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B222" s="3">
+        <v>45147</v>
+      </c>
+      <c r="C222" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B223" s="3">
+        <v>45148</v>
+      </c>
+      <c r="C223" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B224" s="3">
+        <v>45149</v>
+      </c>
+      <c r="C224" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B225" s="3">
+        <v>45150</v>
+      </c>
+      <c r="C225" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B226" s="3">
+        <v>45151</v>
+      </c>
+      <c r="C226" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B227" s="3">
+        <v>45152</v>
+      </c>
+      <c r="C227" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B228" s="3">
+        <v>45153</v>
+      </c>
+      <c r="C228" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B229" s="3">
+        <v>45154</v>
+      </c>
+      <c r="C229" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B230" s="3">
+        <v>45155</v>
+      </c>
+      <c r="C230" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B231" s="3">
+        <v>45156</v>
+      </c>
+      <c r="C231" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B232" s="3">
+        <v>45157</v>
+      </c>
+      <c r="C232" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B233" s="3">
+        <v>45158</v>
+      </c>
+      <c r="C233" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B234" s="3">
+        <v>45159</v>
+      </c>
+      <c r="C234" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B235" s="3">
+        <v>45160</v>
+      </c>
+      <c r="C235" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B236" s="3">
+        <v>45161</v>
+      </c>
+      <c r="C236" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B237" s="3">
+        <v>45162</v>
+      </c>
+      <c r="C237" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B238" s="3">
+        <v>45163</v>
+      </c>
+      <c r="C238" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B239" s="3">
+        <v>45164</v>
+      </c>
+      <c r="C239" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B240" s="3">
+        <v>45165</v>
+      </c>
+      <c r="C240" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B241" s="3">
+        <v>45166</v>
+      </c>
+      <c r="C241" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B242" s="3">
+        <v>45167</v>
+      </c>
+      <c r="C242" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B243" s="3">
+        <v>45168</v>
+      </c>
+      <c r="C243" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B244" s="3">
+        <v>45169</v>
+      </c>
+      <c r="C244" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B245" s="3">
+        <v>45170</v>
+      </c>
+      <c r="C245" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B246" s="3">
+        <v>45171</v>
+      </c>
+      <c r="C246" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B247" s="3">
+        <v>45172</v>
+      </c>
+      <c r="C247" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B248" s="3">
+        <v>45173</v>
+      </c>
+      <c r="C248" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B249" s="3">
+        <v>45174</v>
+      </c>
+      <c r="C249" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B250" s="3">
+        <v>45175</v>
+      </c>
+      <c r="C250" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B251" s="3">
+        <v>45176</v>
+      </c>
+      <c r="C251" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B252" s="3">
+        <v>45177</v>
+      </c>
+      <c r="C252" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B253" s="3">
+        <v>45178</v>
+      </c>
+      <c r="C253" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B254" s="3">
+        <v>45179</v>
+      </c>
+      <c r="C254" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B255" s="3">
+        <v>45180</v>
+      </c>
+      <c r="C255" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B256" s="3">
+        <v>45181</v>
+      </c>
+      <c r="C256" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B257" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C257" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B258" s="3">
+        <v>45183</v>
+      </c>
+      <c r="C258" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <f t="shared" ref="A259:A322" si="6">MONTH(B259)</f>
+        <v>9</v>
+      </c>
+      <c r="B259" s="3">
+        <v>45184</v>
+      </c>
+      <c r="C259" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B260" s="3">
+        <v>45185</v>
+      </c>
+      <c r="C260" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B261" s="3">
+        <v>45186</v>
+      </c>
+      <c r="C261" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B262" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C262" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B263" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C263" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B264" s="3">
+        <v>45189</v>
+      </c>
+      <c r="C264" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B265" s="3">
+        <v>45190</v>
+      </c>
+      <c r="C265" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B266" s="3">
+        <v>45191</v>
+      </c>
+      <c r="C266" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B267" s="3">
+        <v>45192</v>
+      </c>
+      <c r="C267" s="4">
+        <f t="shared" ref="C267:C330" ca="1" si="7">RANDBETWEEN(1,200)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B268" s="3">
+        <v>45193</v>
+      </c>
+      <c r="C268" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B269" s="3">
+        <v>45194</v>
+      </c>
+      <c r="C269" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B270" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C270" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B271" s="3">
+        <v>45196</v>
+      </c>
+      <c r="C271" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B272" s="3">
+        <v>45197</v>
+      </c>
+      <c r="C272" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B273" s="3">
+        <v>45198</v>
+      </c>
+      <c r="C273" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B274" s="3">
+        <v>45199</v>
+      </c>
+      <c r="C274" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B275" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C275" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B276" s="3">
+        <v>45201</v>
+      </c>
+      <c r="C276" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B277" s="3">
+        <v>45202</v>
+      </c>
+      <c r="C277" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B278" s="3">
+        <v>45203</v>
+      </c>
+      <c r="C278" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B279" s="3">
+        <v>45204</v>
+      </c>
+      <c r="C279" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B280" s="3">
+        <v>45205</v>
+      </c>
+      <c r="C280" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B281" s="3">
+        <v>45206</v>
+      </c>
+      <c r="C281" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B282" s="3">
+        <v>45207</v>
+      </c>
+      <c r="C282" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B283" s="3">
+        <v>45208</v>
+      </c>
+      <c r="C283" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B284" s="3">
+        <v>45209</v>
+      </c>
+      <c r="C284" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B285" s="3">
+        <v>45210</v>
+      </c>
+      <c r="C285" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B286" s="3">
+        <v>45211</v>
+      </c>
+      <c r="C286" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B287" s="3">
+        <v>45212</v>
+      </c>
+      <c r="C287" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B288" s="3">
+        <v>45213</v>
+      </c>
+      <c r="C288" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B289" s="3">
+        <v>45214</v>
+      </c>
+      <c r="C289" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B290" s="3">
+        <v>45215</v>
+      </c>
+      <c r="C290" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B291" s="3">
+        <v>45216</v>
+      </c>
+      <c r="C291" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B292" s="3">
+        <v>45217</v>
+      </c>
+      <c r="C292" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B293" s="3">
+        <v>45218</v>
+      </c>
+      <c r="C293" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B294" s="3">
+        <v>45219</v>
+      </c>
+      <c r="C294" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B295" s="3">
+        <v>45220</v>
+      </c>
+      <c r="C295" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B296" s="3">
+        <v>45221</v>
+      </c>
+      <c r="C296" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B297" s="3">
+        <v>45222</v>
+      </c>
+      <c r="C297" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B298" s="3">
+        <v>45223</v>
+      </c>
+      <c r="C298" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B299" s="3">
+        <v>45224</v>
+      </c>
+      <c r="C299" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B300" s="3">
+        <v>45225</v>
+      </c>
+      <c r="C300" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B301" s="3">
+        <v>45226</v>
+      </c>
+      <c r="C301" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B302" s="3">
+        <v>45227</v>
+      </c>
+      <c r="C302" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B303" s="3">
+        <v>45228</v>
+      </c>
+      <c r="C303" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B304" s="3">
+        <v>45229</v>
+      </c>
+      <c r="C304" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B305" s="3">
+        <v>45230</v>
+      </c>
+      <c r="C305" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B306" s="3">
+        <v>45231</v>
+      </c>
+      <c r="C306" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B307" s="3">
+        <v>45232</v>
+      </c>
+      <c r="C307" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B308" s="3">
+        <v>45233</v>
+      </c>
+      <c r="C308" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B309" s="3">
+        <v>45234</v>
+      </c>
+      <c r="C309" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B310" s="3">
+        <v>45235</v>
+      </c>
+      <c r="C310" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B311" s="3">
+        <v>45236</v>
+      </c>
+      <c r="C311" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B312" s="3">
+        <v>45237</v>
+      </c>
+      <c r="C312" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B313" s="3">
+        <v>45238</v>
+      </c>
+      <c r="C313" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B314" s="3">
+        <v>45239</v>
+      </c>
+      <c r="C314" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B315" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C315" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B316" s="3">
+        <v>45241</v>
+      </c>
+      <c r="C316" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B317" s="3">
+        <v>45242</v>
+      </c>
+      <c r="C317" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B318" s="3">
+        <v>45243</v>
+      </c>
+      <c r="C318" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B319" s="3">
+        <v>45244</v>
+      </c>
+      <c r="C319" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B320" s="3">
+        <v>45245</v>
+      </c>
+      <c r="C320" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B321" s="3">
+        <v>45246</v>
+      </c>
+      <c r="C321" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B322" s="3">
+        <v>45247</v>
+      </c>
+      <c r="C322" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <f t="shared" ref="A323:A386" si="8">MONTH(B323)</f>
+        <v>11</v>
+      </c>
+      <c r="B323" s="3">
+        <v>45248</v>
+      </c>
+      <c r="C323" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B324" s="3">
+        <v>45249</v>
+      </c>
+      <c r="C324" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B325" s="3">
+        <v>45250</v>
+      </c>
+      <c r="C325" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B326" s="3">
+        <v>45251</v>
+      </c>
+      <c r="C326" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B327" s="3">
+        <v>45252</v>
+      </c>
+      <c r="C327" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B328" s="3">
+        <v>45253</v>
+      </c>
+      <c r="C328" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B329" s="3">
+        <v>45254</v>
+      </c>
+      <c r="C329" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B330" s="3">
+        <v>45255</v>
+      </c>
+      <c r="C330" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B331" s="3">
+        <v>45256</v>
+      </c>
+      <c r="C331" s="4">
+        <f t="shared" ref="C331:C394" ca="1" si="9">RANDBETWEEN(1,200)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B332" s="3">
+        <v>45257</v>
+      </c>
+      <c r="C332" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B333" s="3">
+        <v>45258</v>
+      </c>
+      <c r="C333" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B334" s="3">
+        <v>45259</v>
+      </c>
+      <c r="C334" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B335" s="3">
+        <v>45260</v>
+      </c>
+      <c r="C335" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B336" s="3">
+        <v>45261</v>
+      </c>
+      <c r="C336" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B337" s="3">
+        <v>45262</v>
+      </c>
+      <c r="C337" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B338" s="3">
+        <v>45263</v>
+      </c>
+      <c r="C338" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B339" s="3">
+        <v>45264</v>
+      </c>
+      <c r="C339" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B340" s="3">
+        <v>45265</v>
+      </c>
+      <c r="C340" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B341" s="3">
+        <v>45266</v>
+      </c>
+      <c r="C341" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B342" s="3">
+        <v>45267</v>
+      </c>
+      <c r="C342" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B343" s="3">
+        <v>45268</v>
+      </c>
+      <c r="C343" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B344" s="3">
+        <v>45269</v>
+      </c>
+      <c r="C344" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B345" s="3">
+        <v>45270</v>
+      </c>
+      <c r="C345" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B346" s="3">
+        <v>45271</v>
+      </c>
+      <c r="C346" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B347" s="3">
+        <v>45272</v>
+      </c>
+      <c r="C347" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B348" s="3">
+        <v>45273</v>
+      </c>
+      <c r="C348" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B349" s="3">
+        <v>45274</v>
+      </c>
+      <c r="C349" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B350" s="3">
+        <v>45275</v>
+      </c>
+      <c r="C350" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B351" s="3">
+        <v>45276</v>
+      </c>
+      <c r="C351" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B352" s="3">
+        <v>45277</v>
+      </c>
+      <c r="C352" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B353" s="3">
+        <v>45278</v>
+      </c>
+      <c r="C353" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B354" s="3">
+        <v>45279</v>
+      </c>
+      <c r="C354" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B355" s="3">
+        <v>45280</v>
+      </c>
+      <c r="C355" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B356" s="3">
+        <v>45281</v>
+      </c>
+      <c r="C356" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B357" s="3">
+        <v>45282</v>
+      </c>
+      <c r="C357" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B358" s="3">
+        <v>45283</v>
+      </c>
+      <c r="C358" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B359" s="3">
+        <v>45284</v>
+      </c>
+      <c r="C359" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B360" s="3">
+        <v>45285</v>
+      </c>
+      <c r="C360" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B361" s="3">
+        <v>45286</v>
+      </c>
+      <c r="C361" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B362" s="3">
+        <v>45287</v>
+      </c>
+      <c r="C362" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B363" s="3">
+        <v>45288</v>
+      </c>
+      <c r="C363" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B364" s="3">
+        <v>45289</v>
+      </c>
+      <c r="C364" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B365" s="3">
+        <v>45290</v>
+      </c>
+      <c r="C365" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B366" s="3">
+        <v>45291</v>
+      </c>
+      <c r="C366" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B367" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C367" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B368" s="3">
+        <v>45293</v>
+      </c>
+      <c r="C368" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B369" s="3">
+        <v>45294</v>
+      </c>
+      <c r="C369" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B370" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C370" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B371" s="3">
+        <v>45296</v>
+      </c>
+      <c r="C371" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B372" s="3">
+        <v>45297</v>
+      </c>
+      <c r="C372" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B373" s="3">
+        <v>45298</v>
+      </c>
+      <c r="C373" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B374" s="3">
+        <v>45299</v>
+      </c>
+      <c r="C374" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B375" s="3">
+        <v>45300</v>
+      </c>
+      <c r="C375" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B376" s="3">
+        <v>45301</v>
+      </c>
+      <c r="C376" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B377" s="3">
+        <v>45302</v>
+      </c>
+      <c r="C377" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B378" s="3">
+        <v>45303</v>
+      </c>
+      <c r="C378" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B379" s="3">
+        <v>45304</v>
+      </c>
+      <c r="C379" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B380" s="3">
+        <v>45305</v>
+      </c>
+      <c r="C380" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B381" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C381" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B382" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C382" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B383" s="3">
+        <v>45308</v>
+      </c>
+      <c r="C383" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B384" s="3">
+        <v>45309</v>
+      </c>
+      <c r="C384" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B385" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C385" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B386" s="3">
+        <v>45311</v>
+      </c>
+      <c r="C386" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <f t="shared" ref="A387:A450" si="10">MONTH(B387)</f>
+        <v>1</v>
+      </c>
+      <c r="B387" s="3">
+        <v>45312</v>
+      </c>
+      <c r="C387" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B388" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C388" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B389" s="3">
+        <v>45314</v>
+      </c>
+      <c r="C389" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B390" s="3">
+        <v>45315</v>
+      </c>
+      <c r="C390" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B391" s="3">
+        <v>45316</v>
+      </c>
+      <c r="C391" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B392" s="3">
+        <v>45317</v>
+      </c>
+      <c r="C392" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B393" s="3">
+        <v>45318</v>
+      </c>
+      <c r="C393" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B394" s="3">
+        <v>45319</v>
+      </c>
+      <c r="C394" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B395" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C395" s="4">
+        <f t="shared" ref="C395:C458" ca="1" si="11">RANDBETWEEN(1,200)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B396" s="3">
+        <v>45321</v>
+      </c>
+      <c r="C396" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B397" s="3">
+        <v>45322</v>
+      </c>
+      <c r="C397" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B398" s="3">
+        <v>45323</v>
+      </c>
+      <c r="C398" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B399" s="3">
+        <v>45324</v>
+      </c>
+      <c r="C399" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B400" s="3">
+        <v>45325</v>
+      </c>
+      <c r="C400" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B401" s="3">
+        <v>45326</v>
+      </c>
+      <c r="C401" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B402" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C402" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B403" s="3">
+        <v>45328</v>
+      </c>
+      <c r="C403" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B404" s="3">
+        <v>45329</v>
+      </c>
+      <c r="C404" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B405" s="3">
+        <v>45330</v>
+      </c>
+      <c r="C405" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B406" s="3">
+        <v>45331</v>
+      </c>
+      <c r="C406" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B407" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C407" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B408" s="3">
+        <v>45333</v>
+      </c>
+      <c r="C408" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B409" s="3">
+        <v>45334</v>
+      </c>
+      <c r="C409" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B410" s="3">
+        <v>45335</v>
+      </c>
+      <c r="C410" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B411" s="3">
+        <v>45336</v>
+      </c>
+      <c r="C411" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B412" s="3">
+        <v>45337</v>
+      </c>
+      <c r="C412" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B413" s="3">
+        <v>45338</v>
+      </c>
+      <c r="C413" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B414" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C414" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B415" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C415" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B416" s="3">
+        <v>45341</v>
+      </c>
+      <c r="C416" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B417" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C417" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B418" s="3">
+        <v>45343</v>
+      </c>
+      <c r="C418" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B419" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C419" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B420" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C420" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B421" s="3">
+        <v>45346</v>
+      </c>
+      <c r="C421" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B422" s="3">
+        <v>45347</v>
+      </c>
+      <c r="C422" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B423" s="3">
+        <v>45348</v>
+      </c>
+      <c r="C423" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B424" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C424" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B425" s="3">
+        <v>45350</v>
+      </c>
+      <c r="C425" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B426" s="3">
+        <v>45351</v>
+      </c>
+      <c r="C426" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B427" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C427" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B428" s="3">
+        <v>45353</v>
+      </c>
+      <c r="C428" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B429" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C429" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B430" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C430" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B431" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C431" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B432" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C432" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B433" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C433" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B434" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C434" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B435" s="3">
+        <v>45360</v>
+      </c>
+      <c r="C435" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B436" s="3">
+        <v>45361</v>
+      </c>
+      <c r="C436" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B437" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C437" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B438" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C438" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B439" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C439" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B440" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C440" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B441" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C441" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B442" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C442" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B443" s="3">
+        <v>45368</v>
+      </c>
+      <c r="C443" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B444" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C444" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B445" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C445" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B446" s="3">
+        <v>45371</v>
+      </c>
+      <c r="C446" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B447" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C447" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B448" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C448" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B449" s="3">
+        <v>45374</v>
+      </c>
+      <c r="C449" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B450" s="3">
+        <v>45375</v>
+      </c>
+      <c r="C450" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <f t="shared" ref="A451:A514" si="12">MONTH(B451)</f>
+        <v>3</v>
+      </c>
+      <c r="B451" s="3">
+        <v>45376</v>
+      </c>
+      <c r="C451" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B452" s="3">
+        <v>45377</v>
+      </c>
+      <c r="C452" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B453" s="3">
+        <v>45378</v>
+      </c>
+      <c r="C453" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B454" s="3">
+        <v>45379</v>
+      </c>
+      <c r="C454" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B455" s="3">
+        <v>45380</v>
+      </c>
+      <c r="C455" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B456" s="3">
+        <v>45381</v>
+      </c>
+      <c r="C456" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B457" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C457" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B458" s="3">
+        <v>45383</v>
+      </c>
+      <c r="C458" s="4">
+        <f t="shared" ca="1" si="11"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B459" s="3">
+        <v>45384</v>
+      </c>
+      <c r="C459" s="4">
+        <f t="shared" ref="C459:C522" ca="1" si="13">RANDBETWEEN(1,200)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B460" s="3">
+        <v>45385</v>
+      </c>
+      <c r="C460" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B461" s="3">
+        <v>45386</v>
+      </c>
+      <c r="C461" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B462" s="3">
+        <v>45387</v>
+      </c>
+      <c r="C462" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B463" s="3">
+        <v>45388</v>
+      </c>
+      <c r="C463" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B464" s="3">
+        <v>45389</v>
+      </c>
+      <c r="C464" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B465" s="3">
+        <v>45390</v>
+      </c>
+      <c r="C465" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B466" s="3">
+        <v>45391</v>
+      </c>
+      <c r="C466" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B467" s="3">
+        <v>45392</v>
+      </c>
+      <c r="C467" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B468" s="3">
+        <v>45393</v>
+      </c>
+      <c r="C468" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B469" s="3">
+        <v>45394</v>
+      </c>
+      <c r="C469" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B470" s="3">
+        <v>45395</v>
+      </c>
+      <c r="C470" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B471" s="3">
+        <v>45396</v>
+      </c>
+      <c r="C471" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B472" s="3">
+        <v>45397</v>
+      </c>
+      <c r="C472" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B473" s="3">
+        <v>45398</v>
+      </c>
+      <c r="C473" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B474" s="3">
+        <v>45399</v>
+      </c>
+      <c r="C474" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B475" s="3">
+        <v>45400</v>
+      </c>
+      <c r="C475" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B476" s="3">
+        <v>45401</v>
+      </c>
+      <c r="C476" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B477" s="3">
+        <v>45402</v>
+      </c>
+      <c r="C477" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B478" s="3">
+        <v>45403</v>
+      </c>
+      <c r="C478" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B479" s="3">
+        <v>45404</v>
+      </c>
+      <c r="C479" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B480" s="3">
+        <v>45405</v>
+      </c>
+      <c r="C480" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B481" s="3">
+        <v>45406</v>
+      </c>
+      <c r="C481" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B482" s="3">
+        <v>45407</v>
+      </c>
+      <c r="C482" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B483" s="3">
+        <v>45408</v>
+      </c>
+      <c r="C483" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B484" s="3">
+        <v>45409</v>
+      </c>
+      <c r="C484" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B485" s="3">
+        <v>45410</v>
+      </c>
+      <c r="C485" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B486" s="3">
+        <v>45411</v>
+      </c>
+      <c r="C486" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B487" s="3">
+        <v>45412</v>
+      </c>
+      <c r="C487" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B488" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C488" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B489" s="3">
+        <v>45414</v>
+      </c>
+      <c r="C489" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B490" s="3">
+        <v>45415</v>
+      </c>
+      <c r="C490" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B491" s="3">
+        <v>45416</v>
+      </c>
+      <c r="C491" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B492" s="3">
+        <v>45417</v>
+      </c>
+      <c r="C492" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B493" s="3">
+        <v>45418</v>
+      </c>
+      <c r="C493" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B494" s="3">
+        <v>45419</v>
+      </c>
+      <c r="C494" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B495" s="3">
+        <v>45420</v>
+      </c>
+      <c r="C495" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B496" s="3">
+        <v>45421</v>
+      </c>
+      <c r="C496" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B497" s="3">
+        <v>45422</v>
+      </c>
+      <c r="C497" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B498" s="3">
+        <v>45423</v>
+      </c>
+      <c r="C498" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B499" s="3">
+        <v>45424</v>
+      </c>
+      <c r="C499" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B500" s="3">
+        <v>45425</v>
+      </c>
+      <c r="C500" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B501" s="3">
+        <v>45426</v>
+      </c>
+      <c r="C501" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B502" s="3">
+        <v>45427</v>
+      </c>
+      <c r="C502" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B503" s="3">
+        <v>45428</v>
+      </c>
+      <c r="C503" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B504" s="3">
+        <v>45429</v>
+      </c>
+      <c r="C504" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B505" s="3">
+        <v>45430</v>
+      </c>
+      <c r="C505" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B506" s="3">
+        <v>45431</v>
+      </c>
+      <c r="C506" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B507" s="3">
+        <v>45432</v>
+      </c>
+      <c r="C507" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B508" s="3">
+        <v>45433</v>
+      </c>
+      <c r="C508" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B509" s="3">
+        <v>45434</v>
+      </c>
+      <c r="C509" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B510" s="3">
+        <v>45435</v>
+      </c>
+      <c r="C510" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B511" s="3">
+        <v>45436</v>
+      </c>
+      <c r="C511" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B512" s="3">
+        <v>45437</v>
+      </c>
+      <c r="C512" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B513" s="3">
+        <v>45438</v>
+      </c>
+      <c r="C513" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B514" s="3">
+        <v>45439</v>
+      </c>
+      <c r="C514" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <f t="shared" ref="A515:A578" si="14">MONTH(B515)</f>
+        <v>5</v>
+      </c>
+      <c r="B515" s="3">
+        <v>45440</v>
+      </c>
+      <c r="C515" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B516" s="3">
+        <v>45441</v>
+      </c>
+      <c r="C516" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B517" s="3">
+        <v>45442</v>
+      </c>
+      <c r="C517" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B518" s="3">
+        <v>45443</v>
+      </c>
+      <c r="C518" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B519" s="3">
+        <v>45444</v>
+      </c>
+      <c r="C519" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B520" s="3">
+        <v>45445</v>
+      </c>
+      <c r="C520" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B521" s="3">
+        <v>45446</v>
+      </c>
+      <c r="C521" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B522" s="3">
+        <v>45447</v>
+      </c>
+      <c r="C522" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B523" s="3">
+        <v>45448</v>
+      </c>
+      <c r="C523" s="4">
+        <f t="shared" ref="C523:C586" ca="1" si="15">RANDBETWEEN(1,200)</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B524" s="3">
+        <v>45449</v>
+      </c>
+      <c r="C524" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B525" s="3">
+        <v>45450</v>
+      </c>
+      <c r="C525" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B526" s="3">
+        <v>45451</v>
+      </c>
+      <c r="C526" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B527" s="3">
+        <v>45452</v>
+      </c>
+      <c r="C527" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B528" s="3">
+        <v>45453</v>
+      </c>
+      <c r="C528" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B529" s="3">
+        <v>45454</v>
+      </c>
+      <c r="C529" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B530" s="3">
+        <v>45455</v>
+      </c>
+      <c r="C530" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B531" s="3">
+        <v>45456</v>
+      </c>
+      <c r="C531" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B532" s="3">
+        <v>45457</v>
+      </c>
+      <c r="C532" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B533" s="3">
+        <v>45458</v>
+      </c>
+      <c r="C533" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B534" s="3">
+        <v>45459</v>
+      </c>
+      <c r="C534" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B535" s="3">
+        <v>45460</v>
+      </c>
+      <c r="C535" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B536" s="3">
+        <v>45461</v>
+      </c>
+      <c r="C536" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B537" s="3">
+        <v>45462</v>
+      </c>
+      <c r="C537" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B538" s="3">
+        <v>45463</v>
+      </c>
+      <c r="C538" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B539" s="3">
+        <v>45464</v>
+      </c>
+      <c r="C539" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B540" s="3">
+        <v>45465</v>
+      </c>
+      <c r="C540" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B541" s="3">
+        <v>45466</v>
+      </c>
+      <c r="C541" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B542" s="3">
+        <v>45467</v>
+      </c>
+      <c r="C542" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B543" s="3">
+        <v>45468</v>
+      </c>
+      <c r="C543" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B544" s="3">
+        <v>45469</v>
+      </c>
+      <c r="C544" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B545" s="3">
+        <v>45470</v>
+      </c>
+      <c r="C545" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B546" s="3">
+        <v>45471</v>
+      </c>
+      <c r="C546" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B547" s="3">
+        <v>45472</v>
+      </c>
+      <c r="C547" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B548" s="3">
+        <v>45473</v>
+      </c>
+      <c r="C548" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B549" s="3">
+        <v>45474</v>
+      </c>
+      <c r="C549" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B550" s="3">
+        <v>45475</v>
+      </c>
+      <c r="C550" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B551" s="3">
+        <v>45476</v>
+      </c>
+      <c r="C551" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B552" s="3">
+        <v>45477</v>
+      </c>
+      <c r="C552" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B553" s="3">
+        <v>45478</v>
+      </c>
+      <c r="C553" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B554" s="3">
+        <v>45479</v>
+      </c>
+      <c r="C554" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B555" s="3">
+        <v>45480</v>
+      </c>
+      <c r="C555" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B556" s="3">
+        <v>45481</v>
+      </c>
+      <c r="C556" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B557" s="3">
+        <v>45482</v>
+      </c>
+      <c r="C557" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B558" s="3">
+        <v>45483</v>
+      </c>
+      <c r="C558" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B559" s="3">
+        <v>45484</v>
+      </c>
+      <c r="C559" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B560" s="3">
+        <v>45485</v>
+      </c>
+      <c r="C560" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B561" s="3">
+        <v>45486</v>
+      </c>
+      <c r="C561" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B562" s="3">
+        <v>45487</v>
+      </c>
+      <c r="C562" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B563" s="3">
+        <v>45488</v>
+      </c>
+      <c r="C563" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B564" s="3">
+        <v>45489</v>
+      </c>
+      <c r="C564" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B565" s="3">
+        <v>45490</v>
+      </c>
+      <c r="C565" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B566" s="3">
+        <v>45491</v>
+      </c>
+      <c r="C566" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B567" s="3">
+        <v>45492</v>
+      </c>
+      <c r="C567" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B568" s="3">
+        <v>45493</v>
+      </c>
+      <c r="C568" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B569" s="3">
+        <v>45494</v>
+      </c>
+      <c r="C569" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B570" s="3">
+        <v>45495</v>
+      </c>
+      <c r="C570" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B571" s="3">
+        <v>45496</v>
+      </c>
+      <c r="C571" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B572" s="3">
+        <v>45497</v>
+      </c>
+      <c r="C572" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B573" s="3">
+        <v>45498</v>
+      </c>
+      <c r="C573" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B574" s="3">
+        <v>45499</v>
+      </c>
+      <c r="C574" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B575" s="3">
+        <v>45500</v>
+      </c>
+      <c r="C575" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B576" s="3">
+        <v>45501</v>
+      </c>
+      <c r="C576" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B577" s="3">
+        <v>45502</v>
+      </c>
+      <c r="C577" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B578" s="3">
+        <v>45503</v>
+      </c>
+      <c r="C578" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <f t="shared" ref="A579:A611" si="16">MONTH(B579)</f>
+        <v>7</v>
+      </c>
+      <c r="B579" s="3">
+        <v>45504</v>
+      </c>
+      <c r="C579" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B580" s="3">
+        <v>45505</v>
+      </c>
+      <c r="C580" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B581" s="3">
+        <v>45506</v>
+      </c>
+      <c r="C581" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B582" s="3">
+        <v>45507</v>
+      </c>
+      <c r="C582" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B583" s="3">
+        <v>45508</v>
+      </c>
+      <c r="C583" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B584" s="3">
+        <v>45509</v>
+      </c>
+      <c r="C584" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B585" s="3">
+        <v>45510</v>
+      </c>
+      <c r="C585" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B586" s="3">
+        <v>45511</v>
+      </c>
+      <c r="C586" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B587" s="3">
+        <v>45512</v>
+      </c>
+      <c r="C587" s="4">
+        <f t="shared" ref="C587:C611" ca="1" si="17">RANDBETWEEN(1,200)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B588" s="3">
+        <v>45513</v>
+      </c>
+      <c r="C588" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B589" s="3">
+        <v>45514</v>
+      </c>
+      <c r="C589" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B590" s="3">
+        <v>45515</v>
+      </c>
+      <c r="C590" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B591" s="3">
+        <v>45516</v>
+      </c>
+      <c r="C591" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B592" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C592" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B593" s="3">
+        <v>45518</v>
+      </c>
+      <c r="C593" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B594" s="3">
+        <v>45519</v>
+      </c>
+      <c r="C594" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B595" s="3">
+        <v>45520</v>
+      </c>
+      <c r="C595" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B596" s="3">
+        <v>45521</v>
+      </c>
+      <c r="C596" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B597" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C597" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B598" s="3">
+        <v>45523</v>
+      </c>
+      <c r="C598" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B599" s="3">
+        <v>45524</v>
+      </c>
+      <c r="C599" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B600" s="3">
+        <v>45525</v>
+      </c>
+      <c r="C600" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B601" s="3">
+        <v>45526</v>
+      </c>
+      <c r="C601" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B602" s="3">
+        <v>45527</v>
+      </c>
+      <c r="C602" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B603" s="3">
+        <v>45528</v>
+      </c>
+      <c r="C603" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B604" s="3">
+        <v>45529</v>
+      </c>
+      <c r="C604" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B605" s="3">
+        <v>45530</v>
+      </c>
+      <c r="C605" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B606" s="3">
+        <v>45531</v>
+      </c>
+      <c r="C606" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B607" s="3">
+        <v>45532</v>
+      </c>
+      <c r="C607" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B608" s="3">
+        <v>45533</v>
+      </c>
+      <c r="C608" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B609" s="3">
+        <v>45534</v>
+      </c>
+      <c r="C609" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="B610" s="3">
+        <v>45535</v>
+      </c>
+      <c r="C610" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="B611" s="3">
+        <v>45536</v>
+      </c>
+      <c r="C611" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
